--- a/download/rts27_2019/Q3/Table_1.xlsx
+++ b/download/rts27_2019/Q3/Table_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summercamilleri/Dropbox (Binary Services Ltd)/RMG_incorporation/Binary Investments (Europe) Ltd/MFSA/Data Reporting/RTS27/2019/Q3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadijatartari/Dropbox (Deriv)/RMG_incorporation/Deriv Investments (Europe) Ltd/MFSA/Data Reporting/RTS27/2019/Q3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71065CC3-2AAF-5741-A5D4-B6A8D8B59269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE15711-473B-B142-A5D8-70355D067C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="460" windowWidth="27240" windowHeight="15420" xr2:uid="{A315AEB8-1F5D-0D4D-A557-714F00D1DF21}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Venue</t>
   </si>
   <si>
-    <t>Binary Investments (Europe) Ltd</t>
-  </si>
-  <si>
     <t>Legal Entity Identifier: 529900GJO69GVJ6GK177</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t xml:space="preserve">Market Segment </t>
-  </si>
-  <si>
-    <t>The Market Segment for Binary Investments (Europe) Ltd is Over the Counter for investors interested to trade in Contracts for Difference (CFDs).</t>
   </si>
   <si>
     <t>TYPE OF EXECUTION</t>
@@ -98,6 +92,12 @@
   </si>
   <si>
     <t>30 minutes</t>
+  </si>
+  <si>
+    <t>Deriv Investments (Europe) Ltd</t>
+  </si>
+  <si>
+    <t>The Market Segment for Deriv Investments (Europe) Ltd is Over the Counter for investors interested to trade in Contracts for Difference (CFDs).</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A2:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,21 +510,21 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -534,21 +534,21 @@
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -559,42 +559,42 @@
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6">
         <v>43647</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -605,19 +605,19 @@
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6">
         <v>43648</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -628,19 +628,19 @@
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6">
         <v>43649</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -651,19 +651,19 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6">
         <v>43650</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -674,19 +674,19 @@
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6">
         <v>43651</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -697,19 +697,19 @@
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6">
         <v>43653</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -720,19 +720,19 @@
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6">
         <v>43654</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -743,19 +743,19 @@
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7">
         <v>43655</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -766,19 +766,19 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6">
         <v>43656</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -789,19 +789,19 @@
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6">
         <v>43657</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -812,19 +812,19 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="6">
         <v>43658</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -835,19 +835,19 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="6">
         <v>43660</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -858,19 +858,19 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="6">
         <v>43661</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -881,19 +881,19 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="6">
         <v>43662</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -904,19 +904,19 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6">
         <v>43663</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -927,19 +927,19 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6">
         <v>43664</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -950,19 +950,19 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="6">
         <v>43665</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -973,19 +973,19 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" s="6">
         <v>43667</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -996,19 +996,19 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="6">
         <v>43668</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1019,19 +1019,19 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="6">
         <v>43669</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1042,19 +1042,19 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" s="6">
         <v>43670</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1065,19 +1065,19 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" s="6">
         <v>43671</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1088,19 +1088,19 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="6">
         <v>43672</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1111,19 +1111,19 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" s="6">
         <v>43674</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1134,19 +1134,19 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" s="6">
         <v>43675</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1157,19 +1157,19 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" s="6">
         <v>43676</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1180,19 +1180,19 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" s="6">
         <v>43677</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1203,19 +1203,19 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="6">
         <v>43678</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1226,19 +1226,19 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" s="6">
         <v>43679</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1249,19 +1249,19 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" s="6">
         <v>43681</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1272,19 +1272,19 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" s="6">
         <v>43682</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1295,19 +1295,19 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B38" s="6">
         <v>43683</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1318,19 +1318,19 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B39" s="6">
         <v>43684</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1341,19 +1341,19 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40" s="6">
         <v>43685</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1364,19 +1364,19 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" s="6">
         <v>43686</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1387,19 +1387,19 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B42" s="6">
         <v>43688</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1410,19 +1410,19 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43" s="6">
         <v>43689</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1433,19 +1433,19 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B44" s="6">
         <v>43690</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1456,19 +1456,19 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B45" s="6">
         <v>43691</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1479,19 +1479,19 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B46" s="6">
         <v>43692</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1502,19 +1502,19 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B47" s="6">
         <v>43693</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1525,19 +1525,19 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B48" s="6">
         <v>43694</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1548,19 +1548,19 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B49" s="6">
         <v>43695</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1571,19 +1571,19 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B50" s="6">
         <v>43696</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1594,19 +1594,19 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B51" s="6">
         <v>43697</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1617,19 +1617,19 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52" s="6">
         <v>43698</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1640,19 +1640,19 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B53" s="6">
         <v>43699</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1663,19 +1663,19 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B54" s="6">
         <v>43700</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1686,19 +1686,19 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B55" s="6">
         <v>43701</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1709,19 +1709,19 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B56" s="6">
         <v>43702</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1732,19 +1732,19 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B57" s="7">
         <v>43703</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -1755,19 +1755,19 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B58" s="6">
         <v>43704</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1778,19 +1778,19 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B59" s="6">
         <v>43705</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1801,19 +1801,19 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B60" s="6">
         <v>43706</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1824,19 +1824,19 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B61" s="6">
         <v>43707</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1847,19 +1847,19 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B62" s="6">
         <v>43708</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1870,19 +1870,19 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B63" s="6">
         <v>43709</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1893,19 +1893,19 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B64" s="6">
         <v>43710</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1916,19 +1916,19 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B65" s="7">
         <v>43711</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
@@ -1939,19 +1939,19 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B66" s="6">
         <v>43712</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1962,19 +1962,19 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B67" s="6">
         <v>43713</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1985,19 +1985,19 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B68" s="6">
         <v>43714</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2008,19 +2008,19 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B69" s="6">
         <v>43715</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2031,19 +2031,19 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B70" s="6">
         <v>43717</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2054,19 +2054,19 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B71" s="6">
         <v>43718</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2077,19 +2077,19 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B72" s="6">
         <v>43719</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2100,19 +2100,19 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B73" s="6">
         <v>43720</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2123,19 +2123,19 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B74" s="6">
         <v>43721</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2146,19 +2146,19 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B75" s="6">
         <v>43723</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2169,19 +2169,19 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B76" s="6">
         <v>43724</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2192,19 +2192,19 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B77" s="6">
         <v>43725</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2215,19 +2215,19 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B78" s="6">
         <v>43726</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2238,19 +2238,19 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B79" s="6">
         <v>43727</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2261,19 +2261,19 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B80" s="6">
         <v>43728</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2284,19 +2284,19 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B81" s="6">
         <v>43729</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2307,19 +2307,19 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B82" s="6">
         <v>43730</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2330,19 +2330,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B83" s="6">
         <v>43731</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2353,19 +2353,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B84" s="6">
         <v>43732</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2376,19 +2376,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B85" s="6">
         <v>43733</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2399,19 +2399,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B86" s="6">
         <v>43734</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2422,19 +2422,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B87" s="6">
         <v>43735</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2445,19 +2445,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B88" s="6">
         <v>43736</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2468,19 +2468,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B89" s="6">
         <v>43737</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2491,19 +2491,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B90" s="6">
         <v>43738</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F90">
         <v>0</v>
